--- a/numeros.xlsx
+++ b/numeros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1338"/>
+  <dimension ref="A1:I1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58521,42 +58521,42 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E1237" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G1237" t="inlineStr">
         <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
           <t>05</t>
         </is>
       </c>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>16172326350511</t>
+          <t>19313334430305</t>
         </is>
       </c>
     </row>
@@ -58568,42 +58568,42 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E1238" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>01111720270405</t>
+          <t>16172326350511</t>
         </is>
       </c>
     </row>
@@ -58615,42 +58615,42 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>02151935440207</t>
+          <t>01111720270405</t>
         </is>
       </c>
     </row>
@@ -58662,42 +58662,42 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>03091226301011</t>
+          <t>02151935440207</t>
         </is>
       </c>
     </row>
@@ -58709,42 +58709,42 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>08273146500103</t>
+          <t>03091226301011</t>
         </is>
       </c>
     </row>
@@ -58756,42 +58756,42 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>12202526270812</t>
+          <t>08273146500103</t>
         </is>
       </c>
     </row>
@@ -58808,37 +58808,37 @@
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>12213539450611</t>
+          <t>12202526270812</t>
         </is>
       </c>
     </row>
@@ -58850,42 +58850,42 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>15202435380812</t>
+          <t>12213539450611</t>
         </is>
       </c>
     </row>
@@ -58897,42 +58897,42 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E1245" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F1245" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G1245" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>19213537390206</t>
+          <t>15202435380812</t>
         </is>
       </c>
     </row>
@@ -58944,42 +58944,42 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G1246" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>21222429420311</t>
+          <t>19213537390206</t>
         </is>
       </c>
     </row>
@@ -58991,32 +58991,32 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1247" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1247" t="inlineStr">
@@ -59026,7 +59026,7 @@
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>13161935410111</t>
+          <t>21222429420311</t>
         </is>
       </c>
     </row>
@@ -59043,22 +59043,22 @@
       </c>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G1248" t="inlineStr">
@@ -59068,12 +59068,12 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>13212431330112</t>
+          <t>13161935410111</t>
         </is>
       </c>
     </row>
@@ -59085,12 +59085,12 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr">
@@ -59100,27 +59100,27 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>02192425440210</t>
+          <t>13212431330112</t>
         </is>
       </c>
     </row>
@@ -59132,42 +59132,42 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>03053233500108</t>
+          <t>02192425440210</t>
         </is>
       </c>
     </row>
@@ -59179,42 +59179,42 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1251" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>02113745470203</t>
+          <t>03053233500108</t>
         </is>
       </c>
     </row>
@@ -59226,42 +59226,42 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="E1252" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F1252" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="G1252" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>19374247480106</t>
+          <t>02113745470203</t>
         </is>
       </c>
     </row>
@@ -59273,27 +59273,27 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1253" t="inlineStr">
@@ -59303,12 +59303,12 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>14162128350111</t>
+          <t>19374247480106</t>
         </is>
       </c>
     </row>
@@ -59320,27 +59320,27 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G1254" t="inlineStr">
@@ -59350,12 +59350,12 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>07243439460106</t>
+          <t>14162128350111</t>
         </is>
       </c>
     </row>
@@ -59367,27 +59367,27 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G1255" t="inlineStr">
@@ -59402,7 +59402,7 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>25262838400106</t>
+          <t>07243439460106</t>
         </is>
       </c>
     </row>
@@ -59414,27 +59414,27 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1256" t="inlineStr">
@@ -59449,7 +59449,7 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>03051342480106</t>
+          <t>25262838400106</t>
         </is>
       </c>
     </row>
@@ -59461,22 +59461,22 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F1257" t="inlineStr">
@@ -59486,17 +59486,17 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>24282934480307</t>
+          <t>03051342480106</t>
         </is>
       </c>
     </row>
@@ -59508,42 +59508,42 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>08233235400108</t>
+          <t>24282934480307</t>
         </is>
       </c>
     </row>
@@ -59555,27 +59555,27 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1259" t="inlineStr">
@@ -59585,12 +59585,12 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>26274245500112</t>
+          <t>08233235400108</t>
         </is>
       </c>
     </row>
@@ -59602,32 +59602,32 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1260" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1260" t="inlineStr">
@@ -59637,7 +59637,7 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>03182842430312</t>
+          <t>26274245500112</t>
         </is>
       </c>
     </row>
@@ -59649,27 +59649,27 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G1261" t="inlineStr">
@@ -59684,7 +59684,7 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>01021116260312</t>
+          <t>03182842430312</t>
         </is>
       </c>
     </row>
@@ -59696,42 +59696,42 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>04202134440103</t>
+          <t>01021116260312</t>
         </is>
       </c>
     </row>
@@ -59743,42 +59743,42 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1263" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
           <t>03</t>
         </is>
       </c>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>14152235480308</t>
+          <t>04202134440103</t>
         </is>
       </c>
     </row>
@@ -59790,22 +59790,22 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1264" t="inlineStr">
@@ -59820,12 +59820,12 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>11212332480312</t>
+          <t>14152235480308</t>
         </is>
       </c>
     </row>
@@ -59837,27 +59837,27 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1265" t="inlineStr">
@@ -59867,12 +59867,12 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>10273645490304</t>
+          <t>11212332480312</t>
         </is>
       </c>
     </row>
@@ -59884,42 +59884,42 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>09121540470111</t>
+          <t>10273645490304</t>
         </is>
       </c>
     </row>
@@ -59931,42 +59931,42 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>17232426270409</t>
+          <t>09121540470111</t>
         </is>
       </c>
     </row>
@@ -59978,27 +59978,27 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G1268" t="inlineStr">
@@ -60008,12 +60008,12 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>07102229440405</t>
+          <t>17232426270409</t>
         </is>
       </c>
     </row>
@@ -60030,37 +60030,37 @@
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>07121320450312</t>
+          <t>07102229440405</t>
         </is>
       </c>
     </row>
@@ -60072,42 +60072,42 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>04061015190104</t>
+          <t>07121320450312</t>
         </is>
       </c>
     </row>
@@ -60119,42 +60119,42 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>22232538441112</t>
+          <t>04061015190104</t>
         </is>
       </c>
     </row>
@@ -60166,42 +60166,42 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>19263139480203</t>
+          <t>22232538441112</t>
         </is>
       </c>
     </row>
@@ -60213,42 +60213,42 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
           <t>02</t>
         </is>
       </c>
-      <c r="C1273" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E1273" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F1273" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>02091319380206</t>
+          <t>19263139480203</t>
         </is>
       </c>
     </row>
@@ -60260,42 +60260,42 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F1274" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>10142532390708</t>
+          <t>02091319380206</t>
         </is>
       </c>
     </row>
@@ -60307,42 +60307,42 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C1275" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>14173435420610</t>
+          <t>10142532390708</t>
         </is>
       </c>
     </row>
@@ -60354,42 +60354,42 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>18192127470511</t>
+          <t>14173435420610</t>
         </is>
       </c>
     </row>
@@ -60401,42 +60401,42 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>03293335440810</t>
+          <t>18192127470511</t>
         </is>
       </c>
     </row>
@@ -60448,27 +60448,27 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1278" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1278" t="inlineStr">
@@ -60478,12 +60478,12 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>07182840480811</t>
+          <t>03293335440810</t>
         </is>
       </c>
     </row>
@@ -60495,22 +60495,22 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr">
@@ -60520,17 +60520,17 @@
       </c>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>03233843480308</t>
+          <t>07182840480811</t>
         </is>
       </c>
     </row>
@@ -60547,37 +60547,37 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>03051725270109</t>
+          <t>03233843480308</t>
         </is>
       </c>
     </row>
@@ -60589,42 +60589,42 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F1281" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G1281" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>16182932500411</t>
+          <t>03051725270109</t>
         </is>
       </c>
     </row>
@@ -60636,42 +60636,42 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>06232740410212</t>
+          <t>16182932500411</t>
         </is>
       </c>
     </row>
@@ -60683,42 +60683,42 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F1283" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G1283" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>09172938390710</t>
+          <t>06232740410212</t>
         </is>
       </c>
     </row>
@@ -60730,42 +60730,42 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F1284" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>14182425500611</t>
+          <t>09172938390710</t>
         </is>
       </c>
     </row>
@@ -60777,42 +60777,42 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>28313543460407</t>
+          <t>14182425500611</t>
         </is>
       </c>
     </row>
@@ -60824,42 +60824,42 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
           <t>07</t>
         </is>
       </c>
-      <c r="C1286" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D1286" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E1286" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F1286" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>07102545480306</t>
+          <t>28313543460407</t>
         </is>
       </c>
     </row>
@@ -60871,42 +60871,42 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
           <t>06</t>
         </is>
       </c>
-      <c r="C1287" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D1287" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E1287" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F1287" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>06182434460312</t>
+          <t>07102545480306</t>
         </is>
       </c>
     </row>
@@ -60918,42 +60918,42 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>10354247480211</t>
+          <t>06182434460312</t>
         </is>
       </c>
     </row>
@@ -60970,37 +60970,37 @@
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>10172844500812</t>
+          <t>10354247480211</t>
         </is>
       </c>
     </row>
@@ -61012,27 +61012,27 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1290" t="inlineStr">
@@ -61042,12 +61042,12 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>06233639470810</t>
+          <t>10172844500812</t>
         </is>
       </c>
     </row>
@@ -61059,42 +61059,42 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>19212231380711</t>
+          <t>06233639470810</t>
         </is>
       </c>
     </row>
@@ -61106,34 +61106,34 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
           <t>07</t>
         </is>
       </c>
-      <c r="D1292" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E1292" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="F1292" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
       <c r="H1292" t="inlineStr">
         <is>
           <t>11</t>
@@ -61141,7 +61141,7 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>02072734400311</t>
+          <t>19212231380711</t>
         </is>
       </c>
     </row>
@@ -61153,22 +61153,22 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr">
@@ -61178,17 +61178,17 @@
       </c>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>17263637400912</t>
+          <t>02072734400311</t>
         </is>
       </c>
     </row>
@@ -61200,42 +61200,42 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>09</t>
         </is>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>06161725310206</t>
+          <t>17263637400912</t>
         </is>
       </c>
     </row>
@@ -61247,42 +61247,42 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>12282934480911</t>
+          <t>06161725310206</t>
         </is>
       </c>
     </row>
@@ -61294,42 +61294,42 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>09</t>
         </is>
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>03101342490309</t>
+          <t>12282934480911</t>
         </is>
       </c>
     </row>
@@ -61341,27 +61341,27 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G1297" t="inlineStr">
@@ -61371,12 +61371,12 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>15232834480305</t>
+          <t>03101342490309</t>
         </is>
       </c>
     </row>
@@ -61388,42 +61388,42 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>10132736370210</t>
+          <t>15232834480305</t>
         </is>
       </c>
     </row>
@@ -61435,42 +61435,42 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>08222332500309</t>
+          <t>10132736370210</t>
         </is>
       </c>
     </row>
@@ -61482,42 +61482,42 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>05283048490511</t>
+          <t>08222332500309</t>
         </is>
       </c>
     </row>
@@ -61529,42 +61529,42 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D1301" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F1301" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1301" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>03111745480408</t>
+          <t>05283048490511</t>
         </is>
       </c>
     </row>
@@ -61581,22 +61581,22 @@
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
@@ -61606,12 +61606,12 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>03252728290409</t>
+          <t>03111745480408</t>
         </is>
       </c>
     </row>
@@ -61628,37 +61628,37 @@
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>03081824400311</t>
+          <t>03252728290409</t>
         </is>
       </c>
     </row>
@@ -61670,27 +61670,27 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
           <t>08</t>
         </is>
       </c>
-      <c r="C1304" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1304" t="inlineStr">
@@ -61700,12 +61700,12 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>08202647480308</t>
+          <t>03081824400311</t>
         </is>
       </c>
     </row>
@@ -61717,27 +61717,27 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F1305" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1305" t="inlineStr">
@@ -61747,12 +61747,12 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>10112036370307</t>
+          <t>08202647480308</t>
         </is>
       </c>
     </row>
@@ -61764,42 +61764,42 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>04252834450811</t>
+          <t>10112036370307</t>
         </is>
       </c>
     </row>
@@ -61811,42 +61811,42 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D1307" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="F1307" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G1307" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>06112135360109</t>
+          <t>04252834450811</t>
         </is>
       </c>
     </row>
@@ -61858,42 +61858,42 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>02121728460610</t>
+          <t>06112135360109</t>
         </is>
       </c>
     </row>
@@ -61905,42 +61905,42 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
           <t>06</t>
         </is>
       </c>
-      <c r="C1309" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D1309" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="F1309" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>06243032480506</t>
+          <t>02121728460610</t>
         </is>
       </c>
     </row>
@@ -61952,42 +61952,42 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D1310" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F1310" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>21303135470210</t>
+          <t>06243032480506</t>
         </is>
       </c>
     </row>
@@ -61999,42 +61999,42 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>01151638450411</t>
+          <t>21303135470210</t>
         </is>
       </c>
     </row>
@@ -62051,37 +62051,37 @@
       </c>
       <c r="C1312" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D1312" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E1312" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F1312" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>01111324490506</t>
+          <t>01151638450411</t>
         </is>
       </c>
     </row>
@@ -62093,42 +62093,42 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>02072131450410</t>
+          <t>01111324490506</t>
         </is>
       </c>
     </row>
@@ -62140,42 +62140,42 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F1314" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>08113342430611</t>
+          <t>02072131450410</t>
         </is>
       </c>
     </row>
@@ -62187,42 +62187,42 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
           <t>06</t>
         </is>
       </c>
-      <c r="C1315" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D1315" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E1315" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="F1315" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>06102427290512</t>
+          <t>08113342430611</t>
         </is>
       </c>
     </row>
@@ -62234,42 +62234,42 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>07172129400811</t>
+          <t>06102427290512</t>
         </is>
       </c>
     </row>
@@ -62281,42 +62281,42 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>01091417430612</t>
+          <t>07172129400811</t>
         </is>
       </c>
     </row>
@@ -62333,37 +62333,37 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G1318" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>01021219260208</t>
+          <t>01091417430612</t>
         </is>
       </c>
     </row>
@@ -62375,27 +62375,27 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C1319" t="inlineStr">
+      <c r="E1319" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D1319" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G1319" t="inlineStr">
@@ -62405,12 +62405,12 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>12192223480206</t>
+          <t>01021219260208</t>
         </is>
       </c>
     </row>
@@ -62427,22 +62427,22 @@
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -62452,12 +62452,12 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>12182125310209</t>
+          <t>12192223480206</t>
         </is>
       </c>
     </row>
@@ -62469,42 +62469,42 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>06204042431012</t>
+          <t>12182125310209</t>
         </is>
       </c>
     </row>
@@ -62516,42 +62516,42 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>08242639420305</t>
+          <t>06204042431012</t>
         </is>
       </c>
     </row>
@@ -62563,22 +62563,22 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr">
@@ -62588,7 +62588,7 @@
       </c>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1323" t="inlineStr">
@@ -62598,7 +62598,7 @@
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>10132430420105</t>
+          <t>08242639420305</t>
         </is>
       </c>
     </row>
@@ -62610,42 +62610,42 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
           <t>05</t>
         </is>
       </c>
-      <c r="C1324" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D1324" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="F1324" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>05091426320307</t>
+          <t>10132430420105</t>
         </is>
       </c>
     </row>
@@ -62657,42 +62657,42 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>25384143500610</t>
+          <t>05091426320307</t>
         </is>
       </c>
     </row>
@@ -62704,42 +62704,42 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>09203133440212</t>
+          <t>25384143500610</t>
         </is>
       </c>
     </row>
@@ -62751,42 +62751,42 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>13183842450711</t>
+          <t>09203133440212</t>
         </is>
       </c>
     </row>
@@ -62798,27 +62798,27 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G1328" t="inlineStr">
@@ -62828,12 +62828,12 @@
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>06203437430710</t>
+          <t>13183842450711</t>
         </is>
       </c>
     </row>
@@ -62845,42 +62845,42 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="F1329" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
         <is>
-          <t>03253843490307</t>
+          <t>06203437430710</t>
         </is>
       </c>
     </row>
@@ -62892,22 +62892,22 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr">
@@ -62917,17 +62917,17 @@
       </c>
       <c r="G1330" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
         <is>
-          <t>01193638490609</t>
+          <t>03253843490307</t>
         </is>
       </c>
     </row>
@@ -62939,42 +62939,42 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G1331" t="inlineStr">
         <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
           <t>09</t>
         </is>
       </c>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I1331" t="inlineStr">
         <is>
-          <t>10252934450910</t>
+          <t>01193638490609</t>
         </is>
       </c>
     </row>
@@ -62986,42 +62986,42 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>09</t>
         </is>
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
         <is>
-          <t>06161839470204</t>
+          <t>10252934450910</t>
         </is>
       </c>
     </row>
@@ -63033,42 +63033,42 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1333" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I1333" t="inlineStr">
         <is>
-          <t>05143536390712</t>
+          <t>06161839470204</t>
         </is>
       </c>
     </row>
@@ -63080,42 +63080,42 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D1334" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E1334" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F1334" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
       <c r="I1334" t="inlineStr">
         <is>
-          <t>03121924300205</t>
+          <t>05143536390712</t>
         </is>
       </c>
     </row>
@@ -63127,42 +63127,42 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F1335" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>06172531460912</t>
+          <t>03121924300205</t>
         </is>
       </c>
     </row>
@@ -63174,27 +63174,27 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G1336" t="inlineStr">
@@ -63209,7 +63209,7 @@
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>04233233440912</t>
+          <t>06172531460912</t>
         </is>
       </c>
     </row>
@@ -63221,42 +63221,42 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F1337" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="F1337" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>02143744500711</t>
+          <t>04233233440912</t>
         </is>
       </c>
     </row>
@@ -63268,40 +63268,87 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F1338" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G1338" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I1338" t="inlineStr">
+        <is>
+          <t>02143744500711</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C1338" t="inlineStr">
+      <c r="C1339" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D1338" t="inlineStr">
+      <c r="D1339" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E1338" t="inlineStr">
+      <c r="E1339" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="F1338" t="inlineStr">
+      <c r="F1339" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G1338" t="inlineStr">
+      <c r="G1339" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
+      <c r="H1339" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I1338" t="inlineStr">
+      <c r="I1339" t="inlineStr">
         <is>
           <t>18283536410611</t>
         </is>
